--- a/techniqo/data_new_ticker/ESABINDIA.xlsx
+++ b/techniqo/data_new_ticker/ESABINDIA.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1393"/>
+  <dimension ref="A1:G1395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49141,6 +49141,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1394" t="n">
+        <v>1412</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>1418.5</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>1367.45</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>1383.7</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>4145</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1395" t="n">
+        <v>1399.95</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>1418</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>1380.4</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>1411.35</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>2473</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/ESABINDIA.xlsx
+++ b/techniqo/data_new_ticker/ESABINDIA.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1395"/>
+  <dimension ref="A1:G1397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49191,6 +49191,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1396" t="n">
+        <v>1423</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>1390</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>1402.35</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>2167</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1397" t="n">
+        <v>1410.65</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>1410.65</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>1368.05</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>1372.65</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>5254</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
